--- a/data_files/07-Marriage Rates 2000-2023.xlsx
+++ b/data_files/07-Marriage Rates 2000-2023.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dvs\marriage-divorce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marquis\DA-Pathway-Project\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19E4B5-DB55-40DD-A5E8-70F1F5B8D6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0BCE8-36B2-41F1-929F-EB974125E34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Population</t>
   </si>
@@ -698,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -711,26 +711,23 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -738,7 +735,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -753,14 +750,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1067,35 +1064,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A15" sqref="A15:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="17"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2065905</v>
+      </c>
+      <c r="C2" s="10">
+        <v>333287557</v>
+      </c>
+      <c r="D2" s="8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1985072</v>
+      </c>
+      <c r="C3" s="10">
+        <v>331893745</v>
+      </c>
+      <c r="D3" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1676911</v>
+      </c>
+      <c r="C4" s="10">
+        <v>329484123</v>
+      </c>
+      <c r="D4" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2015603</v>
+      </c>
+      <c r="C5" s="10">
+        <v>328239523</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2132853</v>
+      </c>
+      <c r="C6" s="10">
+        <v>327167434</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2236496</v>
+      </c>
+      <c r="C7" s="13">
+        <v>325719178</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2251411</v>
+      </c>
+      <c r="C8" s="10">
+        <v>323127513</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2221579</v>
+      </c>
+      <c r="C9" s="10">
+        <v>321418820</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2140272</v>
+      </c>
+      <c r="C10" s="10">
+        <v>308759713</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2081301</v>
+      </c>
+      <c r="C11" s="10">
+        <v>306136672</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2131000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>313914040</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2118000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>311591917</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2096000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>308745538</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBC21E1-0C52-4015-9E41-F991EB573831}">
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1108,8 +1336,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21">
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
         <v>2023</v>
       </c>
       <c r="B4" s="10">
@@ -1122,8 +1350,8 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21">
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>2022</v>
       </c>
       <c r="B5" s="1">
@@ -1136,8 +1364,8 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21">
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
         <v>2021</v>
       </c>
       <c r="B6" s="10">
@@ -1150,8 +1378,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21">
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
         <v>2020</v>
       </c>
       <c r="B7" s="10">
@@ -1164,8 +1392,8 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
         <v>2019</v>
       </c>
       <c r="B8" s="10">
@@ -1178,8 +1406,8 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
         <v>2018</v>
       </c>
       <c r="B9" s="10">
@@ -1192,8 +1420,8 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>2017</v>
       </c>
       <c r="B10" s="10">
@@ -1206,8 +1434,8 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
         <v>2016</v>
       </c>
       <c r="B11" s="10">
@@ -1220,8 +1448,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
         <v>2015</v>
       </c>
       <c r="B12" s="10">
@@ -1234,8 +1462,8 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="9">
@@ -1248,8 +1476,8 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="10">
@@ -1262,8 +1490,8 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
         <v>2012</v>
       </c>
       <c r="B15" s="1">
@@ -1279,8 +1507,8 @@
       <c r="I15"/>
       <c r="J15"/>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
         <v>2011</v>
       </c>
       <c r="B16" s="1">
@@ -1296,8 +1524,8 @@
       <c r="I16"/>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <v>2010</v>
       </c>
       <c r="B17" s="1">
@@ -1313,8 +1541,8 @@
       <c r="I17"/>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <v>2009</v>
       </c>
       <c r="B18" s="1">
@@ -1330,8 +1558,8 @@
       <c r="I18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22">
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <v>2008</v>
       </c>
       <c r="B19" s="1">
@@ -1347,8 +1575,8 @@
       <c r="I19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22">
+    <row r="20" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
         <v>2007</v>
       </c>
       <c r="B20" s="1">
@@ -1361,8 +1589,8 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1375,8 +1603,8 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22">
+    <row r="22" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21">
         <v>2005</v>
       </c>
       <c r="B22" s="1">
@@ -1389,8 +1617,8 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
+    <row r="23" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
         <v>2004</v>
       </c>
       <c r="B23" s="1">
@@ -1403,8 +1631,8 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22">
+    <row r="24" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
         <v>2003</v>
       </c>
       <c r="B24" s="1">
@@ -1417,8 +1645,8 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22">
+    <row r="25" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
         <v>2002</v>
       </c>
       <c r="B25" s="1">
@@ -1431,8 +1659,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+    <row r="26" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21">
         <v>2001</v>
       </c>
       <c r="B26" s="1">
@@ -1445,8 +1673,8 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+    <row r="27" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
         <v>2000</v>
       </c>
       <c r="B27" s="6">
@@ -1459,85 +1687,85 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+    <row r="28" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+    <row r="29" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-    </row>
-    <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:4" s="5" customFormat="1" ht="39" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1550,8 +1778,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21" t="s">
+    <row r="38" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="10">
@@ -1564,8 +1792,8 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="10">
@@ -1578,8 +1806,8 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
+    <row r="40" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="10">
@@ -1592,8 +1820,8 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+    <row r="41" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="10">
@@ -1606,8 +1834,8 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+    <row r="42" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="10">
@@ -1620,8 +1848,8 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+    <row r="43" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
         <v>28</v>
       </c>
       <c r="B43" s="15">
@@ -1634,8 +1862,8 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21" t="s">
+    <row r="44" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B44" s="10">
@@ -1648,8 +1876,8 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="s">
+    <row r="45" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="10">
@@ -1662,8 +1890,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="10">
@@ -1676,8 +1904,8 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="s">
+    <row r="47" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B47" s="10">
@@ -1690,8 +1918,8 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21" t="s">
+    <row r="48" spans="1:4" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B48" s="10">
@@ -1704,8 +1932,8 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="23" t="s">
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B49" s="1">
@@ -1721,8 +1949,8 @@
       <c r="I49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23" t="s">
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B50" s="1">
@@ -1738,8 +1966,8 @@
       <c r="I50"/>
       <c r="J50"/>
     </row>
-    <row r="51" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B51" s="1">
@@ -1755,8 +1983,8 @@
       <c r="I51"/>
       <c r="J51"/>
     </row>
-    <row r="52" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
         <v>37</v>
       </c>
       <c r="B52" s="1">
@@ -1772,8 +2000,8 @@
       <c r="I52"/>
       <c r="J52"/>
     </row>
-    <row r="53" spans="1:10" s="5" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23" t="s">
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="1">
@@ -1789,8 +2017,8 @@
       <c r="I53"/>
       <c r="J53"/>
     </row>
-    <row r="54" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="23" t="s">
+    <row r="54" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="22" t="s">
         <v>39</v>
       </c>
       <c r="B54" s="1">
@@ -1803,8 +2031,8 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
+    <row r="55" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B55" s="1">
@@ -1817,8 +2045,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+    <row r="56" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="1">
@@ -1831,8 +2059,8 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="23" t="s">
+    <row r="57" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B57" s="1">
@@ -1845,8 +2073,8 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="23" t="s">
+    <row r="58" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="1">
@@ -1859,8 +2087,8 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
+    <row r="59" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B59" s="1">
@@ -1873,8 +2101,8 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+    <row r="60" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B60" s="1">
@@ -1887,8 +2115,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+    <row r="61" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="6">
@@ -1901,108 +2129,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
+    <row r="63" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+    <row r="64" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
+    <row r="65" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
+    <row r="66" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+    <row r="67" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+    <row r="68" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+    <row r="69" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="22"/>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-    </row>
-    <row r="72" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+    </row>
+    <row r="72" spans="1:12" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B73" s="1"/>
@@ -2014,7 +2242,6 @@
     <mergeCell ref="A31:I32"/>
     <mergeCell ref="A71:I72"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2022,17 +2249,4 @@
     <brk id="34" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A018E8-728B-4188-9FC3-2010B76D8B67}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>